--- a/log/Log0-mini-neuron1.xlsx
+++ b/log/Log0-mini-neuron1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius Laursen\Desktop\Skole\Sop\KunstigeNeuraleNetvaerkerTilCifre\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050F4976-13EA-4214-8B9C-141BAA1B99C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B47783-4403-4981-B625-B839F49B4B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5430" windowWidth="29040" windowHeight="16440" xr2:uid="{FDF59065-F92F-4D87-A558-E46FE2451C5A}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>input (LAG 1)</t>
   </si>
@@ -69,13 +69,10 @@
     <t>Sum af input</t>
   </si>
   <si>
-    <t>z</t>
+    <t>LAG 2 Bias</t>
   </si>
   <si>
-    <t>Sigmoid</t>
-  </si>
-  <si>
-    <t>LAG 2 Bias</t>
+    <t>LAG 3 Bias</t>
   </si>
   <si>
     <t>Feedfoward</t>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t xml:space="preserve">backpropagation </t>
-  </si>
-  <si>
-    <t>Afledt_Sigmoid</t>
   </si>
   <si>
     <t>∇_a C</t>
@@ -130,6 +124,24 @@
   </si>
   <si>
     <t>NY B 2</t>
+  </si>
+  <si>
+    <t>Sigmoid LAG 2</t>
+  </si>
+  <si>
+    <t>Sigmoid LAG 3</t>
+  </si>
+  <si>
+    <t>z LAG 2</t>
+  </si>
+  <si>
+    <t>z LAG 3</t>
+  </si>
+  <si>
+    <t>Afledt_Sigmoid LAG 3</t>
+  </si>
+  <si>
+    <t>Afledt_Sigmoid LAG 2</t>
   </si>
 </sst>
 </file>
@@ -508,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4B0BF7-6908-4BB7-AA40-6710CD202F29}">
   <dimension ref="A1:AG785"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T750" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG783" sqref="AG783"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,10 +536,11 @@
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" customWidth="1"/>
     <col min="14" max="14" width="20.28515625" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
     <col min="17" max="17" width="21.7109375" customWidth="1"/>
     <col min="18" max="18" width="27.42578125" customWidth="1"/>
     <col min="19" max="19" width="20" customWidth="1"/>
@@ -541,13 +554,13 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -556,88 +569,88 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>23</v>
-      </c>
       <c r="AG1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
